--- a/biology/Zoologie/Cadea/Cadea.xlsx
+++ b/biology/Zoologie/Cadea/Cadea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cadea est un genre d'amphisbènes de la famille des Cadeidae, le seul de la famille Cadeidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux espèces de ce genre sont endémiques de l'île de Cuba.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles se caractérisent par une absence de pattes.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (20 juil. 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (20 juil. 2011) :
 Cadea blanoides Stejneger, 1916
 Cadea palirostrata Dickerson, 1916</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Gray, 1844 : Catalogue of Tortoises, Crocodilians, and Amphisbaenians in the Collection of the British Museum. British Museum (Natural History), London, p. 1-80 (texte intégral).
 (en) Vidal, Azvolinsky, Cruaud &amp; Hedges, 2007 : Origin of tropical American burrowing reptiles by transatlantic rafting. Biology Letters (texte intégral).</t>
